--- a/app/Licenciatura_em_Lingua_de_Sinais_de_Mocambique_Vertente_de_Ensino.xlsx
+++ b/app/Licenciatura_em_Lingua_de_Sinais_de_Mocambique_Vertente_de_Ensino.xlsx
@@ -10,551 +10,26 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet name="20153356" sheetId="2" r:id="rId5"/>
-    <sheet name="20154472" sheetId="3" r:id="rId6"/>
-    <sheet name="20153359" sheetId="4" r:id="rId7"/>
-    <sheet name="20153361" sheetId="5" r:id="rId8"/>
-    <sheet name="20153355" sheetId="6" r:id="rId9"/>
-    <sheet name="20153360" sheetId="7" r:id="rId10"/>
-    <sheet name="20153348" sheetId="8" r:id="rId11"/>
-    <sheet name="20153351" sheetId="9" r:id="rId12"/>
-    <sheet name="20153357" sheetId="10" r:id="rId13"/>
-    <sheet name="20153350" sheetId="11" r:id="rId14"/>
-    <sheet name="20153349" sheetId="12" r:id="rId15"/>
-    <sheet name="20153358" sheetId="13" r:id="rId16"/>
-    <sheet name="20153353" sheetId="14" r:id="rId17"/>
-    <sheet name="20153347" sheetId="15" r:id="rId18"/>
-    <sheet name="20153352" sheetId="16" r:id="rId19"/>
-    <sheet name="20153354" sheetId="17" r:id="rId20"/>
-    <sheet name="Sheet2" sheetId="18" r:id="rId21"/>
-    <sheet name="Sheet3" sheetId="19" r:id="rId22"/>
+    <sheet name="20153359" sheetId="3" r:id="rId6"/>
+    <sheet name="20153361" sheetId="4" r:id="rId7"/>
+    <sheet name="20153355" sheetId="5" r:id="rId8"/>
+    <sheet name="20153360" sheetId="6" r:id="rId9"/>
+    <sheet name="20153348" sheetId="7" r:id="rId10"/>
+    <sheet name="20153351" sheetId="8" r:id="rId11"/>
+    <sheet name="20153357" sheetId="9" r:id="rId12"/>
+    <sheet name="20153350" sheetId="10" r:id="rId13"/>
+    <sheet name="20153349" sheetId="11" r:id="rId14"/>
+    <sheet name="20153358" sheetId="12" r:id="rId15"/>
+    <sheet name="20153353" sheetId="13" r:id="rId16"/>
+    <sheet name="20153347" sheetId="14" r:id="rId17"/>
+    <sheet name="20153352" sheetId="15" r:id="rId18"/>
+    <sheet name="20153354" sheetId="16" r:id="rId19"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId20"/>
+    <sheet name="Sheet3" sheetId="18" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
-  <si>
-    <t>UNIVERSIDADE EDUARDO MONDLANE</t>
-  </si>
-  <si>
-    <t>BOLETIM DE MATRÍCULA</t>
-  </si>
-  <si>
-    <t>Faculdade de Letras e Ciencias Sociais</t>
-  </si>
-  <si>
-    <t>Licenciatura em Administração Pública</t>
-  </si>
-  <si>
-    <t>Ano Lectivo:</t>
-  </si>
-  <si>
-    <t>Número de Estudante:</t>
-  </si>
-  <si>
-    <t>I.DADOS PESSOAIS</t>
-  </si>
-  <si>
-    <t>Apelido</t>
-  </si>
-  <si>
-    <t>Leonardo</t>
-  </si>
-  <si>
-    <t>Nome Completo</t>
-  </si>
-  <si>
-    <t>Elisio</t>
-  </si>
-  <si>
-    <t>Data de Nascimento</t>
-  </si>
-  <si>
-    <t>Filho de</t>
-  </si>
-  <si>
-    <t>E de</t>
-  </si>
-  <si>
-    <t>Natural de</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Nacionalidade</t>
-  </si>
-  <si>
-    <t>Estado Civil</t>
-  </si>
-  <si>
-    <t>Documento de Identificação</t>
-  </si>
-  <si>
-    <t>Numero</t>
-  </si>
-  <si>
-    <t>Emitido Por</t>
-  </si>
-  <si>
-    <t>Em</t>
-  </si>
-  <si>
-    <t>II.ENDEREÇO - TEMPO LECTIVO</t>
-  </si>
-  <si>
-    <t>Distrito</t>
-  </si>
-  <si>
-    <t>Bairro</t>
-  </si>
-  <si>
-    <t>Rua</t>
-  </si>
-  <si>
-    <t>Celular</t>
-  </si>
-  <si>
-    <t>Número</t>
-  </si>
-  <si>
-    <t>Telefone Fixo</t>
-  </si>
-  <si>
-    <t>Quarteirão</t>
-  </si>
-  <si>
-    <t>Tel. Emergencia</t>
-  </si>
-  <si>
-    <t>III. HISTORIAL ACADÉMICO</t>
-  </si>
-  <si>
-    <t>Ano de conclusão do nível anterior</t>
-  </si>
-  <si>
-    <t>Nota Final</t>
-  </si>
-  <si>
-    <t>Local de Conclusão</t>
-  </si>
-  <si>
-    <t>Província</t>
-  </si>
-  <si>
-    <t>IV. COMPROMISSO DE HONRA</t>
-  </si>
-  <si>
-    <t>Juro por minhha honra que todos os dados são verdadeiros e fidedignos</t>
-  </si>
-  <si>
-    <t>Data automática</t>
-  </si>
-  <si>
-    <t>Assinatura do estudante</t>
-  </si>
-  <si>
-    <t>_______________________________________________________</t>
-  </si>
-  <si>
-    <t>Universidade Eduardo Mondlane</t>
-  </si>
-  <si>
-    <t>Faculdade de Educação</t>
-  </si>
-  <si>
-    <t>Licenciatura em Língua de Sinais de Moçambique - Vertente de Ensino</t>
-  </si>
-  <si>
-    <t>Timane</t>
-  </si>
-  <si>
-    <t>Nilsia Isabel</t>
-  </si>
-  <si>
-    <t>1991-01-21</t>
-  </si>
-  <si>
-    <t>Augusto Ernesto Timane</t>
-  </si>
-  <si>
-    <t>Luisa Silvestre Machaeie</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
-    <t>Feminino</t>
-  </si>
-  <si>
-    <t>Moçambique</t>
-  </si>
-  <si>
-    <t>Solteiro</t>
-  </si>
-  <si>
-    <t>BI</t>
-  </si>
-  <si>
-    <t>110100786713N</t>
-  </si>
-  <si>
-    <t>+258825699861</t>
-  </si>
-  <si>
-    <t>Escola Secundaria Noroeste 1</t>
-  </si>
-  <si>
-    <t>Tembe</t>
-  </si>
-  <si>
-    <t>Laura Elisabeth Manuel</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>Tamele</t>
-  </si>
-  <si>
-    <t>JosÉ Baptista</t>
-  </si>
-  <si>
-    <t>1973-12-25</t>
-  </si>
-  <si>
-    <t>Baptista Tamele</t>
-  </si>
-  <si>
-    <t>RosÁria Langa</t>
-  </si>
-  <si>
-    <t>Distrito de Magude</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>110504651295I</t>
-  </si>
-  <si>
-    <t>+258846133440</t>
-  </si>
-  <si>
-    <t>Escola Secundaria de Chokwe</t>
-  </si>
-  <si>
-    <t>Sitoe</t>
-  </si>
-  <si>
-    <t>Benizio David Joao</t>
-  </si>
-  <si>
-    <t>1991-05-18</t>
-  </si>
-  <si>
-    <t>Joao Jochua Sitoe</t>
-  </si>
-  <si>
-    <t>Maria Penina Antonio Mach</t>
-  </si>
-  <si>
-    <t>110300204097B</t>
-  </si>
-  <si>
-    <t>+258846171467</t>
-  </si>
-  <si>
-    <t>Savele</t>
-  </si>
-  <si>
-    <t>Olivia Bernardo Lobo</t>
-  </si>
-  <si>
-    <t>1995-02-17</t>
-  </si>
-  <si>
-    <t>Bernardo Mateus Savele</t>
-  </si>
-  <si>
-    <t>Antoninha Antonio Lobo</t>
-  </si>
-  <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
-    <t>+258840132751</t>
-  </si>
-  <si>
-    <t>Outra - Prov Maputo</t>
-  </si>
-  <si>
-    <t>Panguiuane</t>
-  </si>
-  <si>
-    <t>Augusto Arrone</t>
-  </si>
-  <si>
-    <t>1977-02-02</t>
-  </si>
-  <si>
-    <t>Arrone Panguiuane</t>
-  </si>
-  <si>
-    <t>Isabel Menete</t>
-  </si>
-  <si>
-    <t>0801101189780C</t>
-  </si>
-  <si>
-    <t>+258824880110</t>
-  </si>
-  <si>
-    <t>Instituto Medio de Administracao Estatal</t>
-  </si>
-  <si>
-    <t>Mutondo</t>
-  </si>
-  <si>
-    <t>Quiteria Acacio Marrengula</t>
-  </si>
-  <si>
-    <t>1979-10-10</t>
-  </si>
-  <si>
-    <t>Acacio Chuquelane Marrengula</t>
-  </si>
-  <si>
-    <t>Celina Chitombe Nhamussua</t>
-  </si>
-  <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
-    <t>Casado</t>
-  </si>
-  <si>
-    <t>Talao de Carta de Conducao</t>
-  </si>
-  <si>
-    <t>+258847417157</t>
-  </si>
-  <si>
-    <t>Escola Francisco Manyanga</t>
-  </si>
-  <si>
-    <t>Matsimbe</t>
-  </si>
-  <si>
-    <t>Edna Amaliaa Gomes</t>
-  </si>
-  <si>
-    <t>1990-03-18</t>
-  </si>
-  <si>
-    <t>Gomes Duma Matsimbe</t>
-  </si>
-  <si>
-    <t>Ornica Salva Artur</t>
-  </si>
-  <si>
-    <t>100100776241Q</t>
-  </si>
-  <si>
-    <t>+258829402193</t>
-  </si>
-  <si>
-    <t>Mandlate</t>
-  </si>
-  <si>
-    <t>Marta AndrÉ</t>
-  </si>
-  <si>
-    <t>1986-08-21</t>
-  </si>
-  <si>
-    <t>AndrÉ Alberto Mandlate</t>
-  </si>
-  <si>
-    <t>Suzana Celeste Mauai</t>
-  </si>
-  <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
-    <t>110200940534A</t>
-  </si>
-  <si>
-    <t>+258824313714</t>
-  </si>
-  <si>
-    <t>Instituto de Magisterio Primario da Prov.Maputo</t>
-  </si>
-  <si>
-    <t>Macuacua</t>
-  </si>
-  <si>
-    <t>Benjamim Mutema</t>
-  </si>
-  <si>
-    <t>1972-05-03</t>
-  </si>
-  <si>
-    <t>Jose Macuacua</t>
-  </si>
-  <si>
-    <t>Ana Maungue</t>
-  </si>
-  <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
-    <t>Divorciado</t>
-  </si>
-  <si>
-    <t>110300433509J</t>
-  </si>
-  <si>
-    <t>+258826702626</t>
-  </si>
-  <si>
-    <t>Hoana</t>
-  </si>
-  <si>
-    <t>Sebastiao Fernando</t>
-  </si>
-  <si>
-    <t>1990-08-25</t>
-  </si>
-  <si>
-    <t>Fernando Sebastiao Hoana</t>
-  </si>
-  <si>
-    <t>Yolanda Albino Matlombe</t>
-  </si>
-  <si>
-    <t>Distrito de Manhiça</t>
-  </si>
-  <si>
-    <t>110202327929J</t>
-  </si>
-  <si>
-    <t>+258827023321</t>
-  </si>
-  <si>
-    <t>Angela Maria</t>
-  </si>
-  <si>
-    <t>1971-03-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro Alexandre Hoana         </t>
-  </si>
-  <si>
-    <t>Verge Mabunda</t>
-  </si>
-  <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
-    <t>110502222945I</t>
-  </si>
-  <si>
-    <t>+258829683533</t>
-  </si>
-  <si>
-    <t>Francisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valerio Fernando </t>
-  </si>
-  <si>
-    <t>1990-09-09</t>
-  </si>
-  <si>
-    <t>Fernando Francisco</t>
-  </si>
-  <si>
-    <t>Cristina Carlos Sevene</t>
-  </si>
-  <si>
-    <t>110500809098I</t>
-  </si>
-  <si>
-    <t>+258820918897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuco </t>
-  </si>
-  <si>
-    <t>Fabiao</t>
-  </si>
-  <si>
-    <t>1985-09-17</t>
-  </si>
-  <si>
-    <t>IncÓgnito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LÚcia Arrone Cuco </t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
-    <t>110101465580S</t>
-  </si>
-  <si>
-    <t>+258840236865</t>
-  </si>
-  <si>
-    <t>Escola Secundaria de Laulane</t>
-  </si>
-  <si>
-    <t>Cossa</t>
-  </si>
-  <si>
-    <t>Aurelio Pedro</t>
-  </si>
-  <si>
-    <t>1988-10-19</t>
-  </si>
-  <si>
-    <t>---------------------</t>
-  </si>
-  <si>
-    <t>Regina Alfredo Cossa</t>
-  </si>
-  <si>
-    <t>110500195784P</t>
-  </si>
-  <si>
-    <t>+258825301067</t>
-  </si>
-  <si>
-    <t>Chamusse</t>
-  </si>
-  <si>
-    <t>Idalencio Joao</t>
-  </si>
-  <si>
-    <t>1981-07-26</t>
-  </si>
-  <si>
-    <t>Joao Jose Chamusse</t>
-  </si>
-  <si>
-    <t>Ana Silva Nhamuave</t>
-  </si>
-  <si>
-    <t>110102500532P</t>
-  </si>
-  <si>
-    <t>+258825703155</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -827,291 +302,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
@@ -1788,7 +978,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153357</v>
+        <v>20153350</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -1812,7 +1002,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1828,7 +1018,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1844,7 +1034,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -1860,7 +1050,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1876,7 +1066,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -1891,9 +1081,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -1901,7 +1089,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -1912,7 +1100,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1921,7 +1109,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -1933,7 +1121,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -1941,7 +1129,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2037,7 +1225,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2064,7 +1252,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2001</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -2080,7 +1268,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2383,7 +1571,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153350</v>
+        <v>20153349</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2486,9 +1674,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>124</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2496,7 +1682,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2507,7 +1693,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2516,7 +1702,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2528,7 +1714,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2536,7 +1722,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2632,7 +1818,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2659,7 +1845,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -2675,7 +1861,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2978,7 +2164,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153349</v>
+        <v>20153358</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3002,7 +2188,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3018,7 +2204,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3034,7 +2220,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3050,7 +2236,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3066,7 +2252,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3081,9 +2267,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>133</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3091,7 +2275,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3102,7 +2286,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3111,7 +2295,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3123,7 +2307,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3131,7 +2315,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3227,7 +2411,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3254,7 +2438,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3270,7 +2454,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3573,7 +2757,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153358</v>
+        <v>20153353</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3597,7 +2781,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3613,7 +2797,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3629,7 +2813,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3645,7 +2829,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3661,7 +2845,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3676,9 +2860,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>140</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3686,7 +2868,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3697,7 +2879,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3706,7 +2888,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3718,7 +2900,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3726,7 +2908,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3822,7 +3004,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3849,7 +3031,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3865,7 +3047,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4168,7 +3350,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153353</v>
+        <v>20153347</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4192,7 +3374,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4208,7 +3390,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4224,7 +3406,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4240,7 +3422,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4256,7 +3438,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4271,9 +3453,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4281,7 +3461,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4292,7 +3472,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4301,7 +3481,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4313,7 +3493,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4321,7 +3501,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4417,7 +3597,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4444,7 +3624,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4460,7 +3640,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4763,7 +3943,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153347</v>
+        <v>20153352</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4787,7 +3967,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4803,7 +3983,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4819,7 +3999,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4835,7 +4015,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4851,7 +4031,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4866,9 +4046,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>155</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4876,7 +4054,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4887,7 +4065,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4896,7 +4074,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4908,7 +4086,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4916,7 +4094,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5012,7 +4190,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5039,7 +4217,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5055,7 +4233,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5358,7 +4536,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153352</v>
+        <v>20153354</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5382,7 +4560,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5398,7 +4576,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5414,7 +4592,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5430,7 +4608,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5446,7 +4624,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5461,9 +4639,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>155</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5471,7 +4647,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5482,7 +4658,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5491,7 +4667,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5503,7 +4679,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5511,7 +4687,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5607,7 +4783,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5634,7 +4810,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5650,7 +4826,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5853,601 +5029,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153354</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2004</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -6471,7 +5052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6707,9 +5288,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6717,7 +5296,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6728,7 +5307,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6737,7 +5316,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6749,7 +5328,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6757,7 +5336,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6853,7 +5432,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6896,7 +5475,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7147,7 +5726,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -7197,7 +5778,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154472</v>
+        <v>20153359</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7221,7 +5802,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7237,7 +5818,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7252,7 +5833,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -7266,7 +5849,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -7280,7 +5865,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -7301,7 +5888,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -7310,14 +5899,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -7327,13 +5920,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -7428,7 +6025,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7454,7 +6051,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2011</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -7468,7 +6067,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -7770,7 +6371,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153359</v>
+        <v>20153361</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7794,7 +6395,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7810,7 +6411,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7826,7 +6427,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7842,7 +6443,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7858,7 +6459,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7873,9 +6474,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7883,7 +6482,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7894,7 +6493,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7903,7 +6502,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7915,7 +6514,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7923,7 +6522,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8019,7 +6618,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8046,7 +6645,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -8062,7 +6661,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8365,7 +6964,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153361</v>
+        <v>20153355</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8389,7 +6988,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8405,7 +7004,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8421,7 +7020,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8437,7 +7036,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8453,7 +7052,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8468,9 +7067,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8478,7 +7075,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8489,7 +7086,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8498,7 +7095,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8510,15 +7107,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>75</v>
+      <c r="H17" s="20">
+        <v>11010069782415</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8614,7 +7211,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8641,7 +7238,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -8657,7 +7254,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8960,7 +7557,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153355</v>
+        <v>20153360</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8984,7 +7581,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9000,7 +7597,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9016,7 +7613,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9032,7 +7629,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9048,7 +7645,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9063,9 +7660,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9073,7 +7668,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9084,7 +7679,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9093,7 +7688,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9105,15 +7700,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>11010069782415</v>
+      <c r="H17" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9209,7 +7804,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9236,7 +7831,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9252,7 +7847,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9555,7 +8150,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153360</v>
+        <v>20153348</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9579,7 +8174,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9595,7 +8190,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9611,7 +8206,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9627,7 +8222,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9643,7 +8238,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9658,9 +8253,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9668,7 +8261,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9679,7 +8272,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9688,7 +8281,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9700,15 +8293,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>90</v>
+      <c r="H17" s="20">
+        <v>378536</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9804,7 +8397,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9831,7 +8424,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9847,7 +8440,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10150,7 +8743,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153348</v>
+        <v>20153351</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10174,7 +8767,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10190,7 +8783,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10206,7 +8799,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10222,7 +8815,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10238,7 +8831,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10253,9 +8846,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10263,7 +8854,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10274,7 +8865,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10283,7 +8874,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10295,15 +8886,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>378536</v>
+      <c r="H17" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10399,7 +8990,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10426,7 +9017,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10442,7 +9033,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10745,7 +9336,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153351</v>
+        <v>20153357</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10848,9 +9439,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10858,7 +9447,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10869,7 +9458,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10878,7 +9467,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10890,7 +9479,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11021,7 +9610,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11037,7 +9626,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
